--- a/generated_docs/WR_89792541_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89792541_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>22961.41</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>400.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>121.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>CND-SB556</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup Bolted 556MCM</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>74.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>DEC-795AL</t>
+          <t>CND-SB556</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>DEC,#477 - #795 AL,AS</t>
+          <t>CND,Stirrup Bolted 556MCM</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,1593 +935,1593 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>1717.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>DEC-795AL</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#477 - #795 AL,AS</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10" t="inlineStr"/>
+      <c r="H22" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H22" s="16" t="n">
-        <v>2685.32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="H23" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>Thursday (08/07/2025)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E26" s="8" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G26" s="8" t="inlineStr">
+      <c r="G27" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H26" s="8" t="inlineStr">
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="9" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="n">
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="10" t="inlineStr"/>
-      <c r="H27" s="11" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-DH</t>
         </is>
       </c>
-      <c r="C28" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D28" s="12" t="inlineStr">
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,DE Heavy</t>
         </is>
       </c>
-      <c r="E28" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="n">
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="13" t="inlineStr"/>
-      <c r="H28" s="14" t="n">
-        <v>701.0599999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="inlineStr">
+      <c r="G29" s="13" t="inlineStr"/>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>BKT-PI18-F</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>BKT,Pin insulator 18in,Fbrgls</t>
         </is>
       </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F29" s="10" t="n">
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="10" t="inlineStr"/>
-      <c r="H29" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>CNC-SNB-10</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D30" s="12" t="inlineStr">
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
-      <c r="E30" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="n">
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="13" t="inlineStr"/>
-      <c r="H30" s="14" t="n">
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+      <c r="G31" s="13" t="inlineStr"/>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>CNC-SNB-40</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="n">
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>20.29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>DEC-795AL</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
         <is>
           <t>DEC,#477 - #795 AL,AS</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>DEG-40-SPA</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>DEG,4/0,Slack Span Alum</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>DEG-556-SPA</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>DEG,556,Slack Span Alum</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-42W-I</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="n">
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="10" t="n">
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="n">
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
         <is>
           <t>POL-50-1</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>Pole,50ft,Class 1</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="10" t="n">
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>631.14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="12" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="n">
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="13" t="inlineStr"/>
-      <c r="H40" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="D49" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
         <is>
           <t>ARM-8D-60S</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B44" s="12" t="inlineStr">
+      <c r="B51" s="12" t="inlineStr">
         <is>
           <t>ARM-8S-60S</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
+      <c r="C51" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D44" s="12" t="inlineStr">
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>ARM-BR-60S</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
         <is>
           <t>BKT-PI18-F</t>
         </is>
       </c>
-      <c r="C45" s="9" t="inlineStr">
+      <c r="C53" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="D53" s="12" t="inlineStr">
         <is>
           <t>BKT,Pin insulator 18in,Fbrgls</t>
         </is>
       </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B54" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="n">
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="13" t="inlineStr"/>
-      <c r="H46" s="14" t="n">
-        <v>285.45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B55" s="12" t="inlineStr">
         <is>
           <t>DEG-10-SPA</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D47" s="9" t="inlineStr">
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="10" t="n">
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G47" s="10" t="inlineStr"/>
-      <c r="H47" s="11" t="n">
-        <v>285.45</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>DEG-2-SPA</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D48" s="12" t="inlineStr">
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
-      <c r="E48" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="n">
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="13" t="inlineStr"/>
-      <c r="H48" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-42W-I</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B50" s="12" t="inlineStr">
+      <c r="B60" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C50" s="12" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D50" s="12" t="inlineStr">
+      <c r="D60" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
+      <c r="C63" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D51" s="9" t="inlineStr">
+      <c r="D63" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>93.23999999999999</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B52" s="12" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
+      <c r="C64" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D52" s="12" t="inlineStr">
+      <c r="D64" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light</t>
         </is>
       </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>62.16</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="inlineStr">
         <is>
           <t>POL-50-2</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
+      <c r="C67" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D53" s="9" t="inlineStr">
+      <c r="D67" s="12" t="inlineStr">
         <is>
           <t>Pole,50ft,Class 2</t>
         </is>
       </c>
-      <c r="E53" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="10" t="n">
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G53" s="10" t="inlineStr"/>
-      <c r="H53" s="11" t="n">
-        <v>248.6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B54" s="12" t="inlineStr">
+      <c r="B68" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C54" s="12" t="inlineStr">
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D54" s="12" t="inlineStr">
+      <c r="D68" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="n">
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="13" t="inlineStr"/>
-      <c r="H54" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B69" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
+      <c r="E69" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="15" t="inlineStr">
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H56" s="16" t="n">
-        <v>5763.41</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="inlineStr">
+      <c r="H70" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="inlineStr">
         <is>
           <t>Friday (08/08/2025)</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B74" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C60" s="8" t="inlineStr">
+      <c r="C74" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D60" s="8" t="inlineStr">
+      <c r="D74" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E60" s="8" t="inlineStr">
+      <c r="E74" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F74" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G60" s="8" t="inlineStr">
+      <c r="G74" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H60" s="8" t="inlineStr">
+      <c r="H74" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>134</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>313.56</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>402</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>940.6799999999999</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C63" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>150</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B64" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>449</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>1050.66</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>189</v>
-      </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>442.26</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B66" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>567</v>
-      </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>1326.78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>109.98</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B68" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E68" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="n">
-        <v>142</v>
-      </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>332.28</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>131</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>306.54</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>393</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>919.62</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>170</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>397.8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>509</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>1191.06</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>196</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>458.64</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>587</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>1373.58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
@@ -2545,17 +2545,17 @@
         </is>
       </c>
       <c r="F75" s="10" t="n">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>479.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
@@ -2579,17 +2579,17 @@
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>616</v>
+        <v>402</v>
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>1441.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
@@ -2613,17 +2613,17 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>353.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
@@ -2647,17 +2647,17 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>1060.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
@@ -2681,17 +2681,17 @@
         </is>
       </c>
       <c r="F79" s="10" t="n">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>290.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
@@ -2715,17 +2715,17 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>371</v>
+        <v>567</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>868.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
@@ -2749,17 +2749,17 @@
         </is>
       </c>
       <c r="F81" s="10" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>126.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
@@ -2783,38 +2783,514 @@
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>379.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>131</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>393</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>509</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>196</v>
+      </c>
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>587</v>
+      </c>
+      <c r="G88" s="13" t="inlineStr"/>
+      <c r="H88" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E89" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>616</v>
+      </c>
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>151</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>453</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>371</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
+        <v>162</v>
+      </c>
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H83" s="16" t="n">
-        <v>14512.68</v>
+      <c r="H97" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A70:G70"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A73:H73"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
